--- a/Wilsonville/WilsonvilleDatabase.xlsx
+++ b/Wilsonville/WilsonvilleDatabase.xlsx
@@ -28711,7 +28711,7 @@
         <v>902</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3834057902536162</v>
+        <v>0.45825756949558394</v>
       </c>
       <c r="C2" t="n">
         <v>0.0</v>
@@ -28726,28 +28726,28 @@
         <v>0.5477225575051661</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09486832980505139</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="H2" t="n">
-        <v>0.604979338490167</v>
+        <v>0.5768251665169203</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09486832980505139</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="J2" t="n">
-        <v>0.09486832980505139</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="R2" t="n">
-        <v>1.169187752245122</v>
+        <v>0.5177250386897224</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8949058609708624</v>
+        <v>0.4974002539867154</v>
       </c>
       <c r="T2" t="n">
-        <v>1.1502173707608487</v>
+        <v>0.7937253933193772</v>
       </c>
       <c r="U2" t="n">
-        <v>2.475277762191549</v>
+        <v>0.8591814541086985</v>
       </c>
     </row>
     <row r="3">
@@ -28755,10 +28755,10 @@
         <v>905</v>
       </c>
       <c r="B3" t="n">
-        <v>0.30171713098182157</v>
+        <v>0.4865042554105199</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3695265087809703</v>
+        <v>0.4213250442347432</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
@@ -28767,31 +28767,31 @@
         <v>0.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4770566714969556</v>
+        <v>0.5439282932204211</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5430908357672788</v>
+        <v>0.6527139518645054</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9741772902343674</v>
+        <v>0.6114383961761404</v>
       </c>
       <c r="I3" t="n">
-        <v>1.3587324409735149</v>
+        <v>0.9607689228305228</v>
       </c>
       <c r="J3" t="n">
-        <v>0.38402321277131246</v>
+        <v>0.29520099187699905</v>
       </c>
       <c r="R3" t="n">
-        <v>1.8342652215668303</v>
+        <v>0.7848824774291252</v>
       </c>
       <c r="S3" t="n">
-        <v>2.2540195724627288</v>
+        <v>1.0542084522062558</v>
       </c>
       <c r="T3" t="n">
-        <v>1.3627464303417547</v>
+        <v>0.8305249946237884</v>
       </c>
       <c r="U3" t="n">
-        <v>3.2916384875370843</v>
+        <v>0.9661380531452659</v>
       </c>
     </row>
     <row r="4">
@@ -28799,10 +28799,10 @@
         <v>908</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3816453371975645</v>
+        <v>0.4865042554105199</v>
       </c>
       <c r="C4" t="n">
-        <v>0.30171713098182157</v>
+        <v>0.4865042554105199</v>
       </c>
       <c r="D4" t="n">
         <v>0.0</v>
@@ -28811,31 +28811,31 @@
         <v>0.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2122768179248769</v>
+        <v>0.4418894343490792</v>
       </c>
       <c r="G4" t="n">
-        <v>0.14781060351238814</v>
+        <v>0.3768445758127966</v>
       </c>
       <c r="H4" t="n">
-        <v>1.2722306309526163</v>
+        <v>0.7541134067403203</v>
       </c>
       <c r="I4" t="n">
-        <v>1.3947688208887017</v>
+        <v>1.026522057491589</v>
       </c>
       <c r="J4" t="n">
         <v>0.0</v>
       </c>
       <c r="R4" t="n">
-        <v>1.919637160374854</v>
+        <v>0.871316914634027</v>
       </c>
       <c r="S4" t="n">
-        <v>2.338561894452011</v>
+        <v>1.103919316088965</v>
       </c>
       <c r="T4" t="n">
-        <v>1.279366024154023</v>
+        <v>0.7910920692471624</v>
       </c>
       <c r="U4" t="n">
-        <v>4.085329058770447</v>
+        <v>1.1740763915465937</v>
       </c>
     </row>
     <row r="5">
@@ -28843,10 +28843,10 @@
         <v>912</v>
       </c>
       <c r="B5" t="n">
-        <v>0.375</v>
+        <v>0.4330127018922193</v>
       </c>
       <c r="C5" t="n">
-        <v>0.37654004754794335</v>
+        <v>0.49300664859163473</v>
       </c>
       <c r="D5" t="n">
         <v>0.0</v>
@@ -28855,31 +28855,31 @@
         <v>0.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07978559231302819</v>
+        <v>0.27638539919628335</v>
       </c>
       <c r="G5" t="n">
-        <v>0.31823442326082224</v>
+        <v>0.4930066485916347</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9446486707295528</v>
+        <v>0.6823340165526907</v>
       </c>
       <c r="I5" t="n">
         <v>0.0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.15214515486254615</v>
+        <v>0.372677996249965</v>
       </c>
       <c r="R5" t="n">
-        <v>1.325427953251047</v>
+        <v>0.5888368204940913</v>
       </c>
       <c r="S5" t="n">
-        <v>1.1580342089794529</v>
+        <v>0.7534171126799633</v>
       </c>
       <c r="T5" t="n">
-        <v>0.7576767609436585</v>
+        <v>0.4099044769416432</v>
       </c>
       <c r="U5" t="n">
-        <v>2.926724721013678</v>
+        <v>0.9123028259540877</v>
       </c>
     </row>
     <row r="6">
@@ -28887,43 +28887,43 @@
         <v>915</v>
       </c>
       <c r="B6" t="n">
-        <v>0.33570406630727107</v>
+        <v>0.49792959773196915</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3101101328808879</v>
+        <v>0.51425947722658</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3876376661011099</v>
+        <v>0.5749595745760689</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1733568344082895</v>
+        <v>0.4065578140908709</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6714081326145421</v>
+        <v>0.7041787902195303</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1733568344082895</v>
+        <v>0.4065578140908709</v>
       </c>
       <c r="H6" t="n">
-        <v>1.123815011608028</v>
+        <v>0.8334435188862852</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5801629347036114</v>
+        <v>0.6803013430498075</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6797489261149813</v>
+        <v>0.6025330238785478</v>
       </c>
       <c r="R6" t="n">
-        <v>2.0714564031987543</v>
+        <v>0.9419249999464613</v>
       </c>
       <c r="S6" t="n">
-        <v>2.2700330476814075</v>
+        <v>1.1281151095264108</v>
       </c>
       <c r="T6" t="n">
-        <v>2.3431213970454583</v>
+        <v>1.1662714584240537</v>
       </c>
       <c r="U6" t="n">
-        <v>4.325078442199582</v>
+        <v>1.3764974730138084</v>
       </c>
     </row>
     <row r="7">
@@ -28931,43 +28931,43 @@
         <v>919</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3834057902536162</v>
+        <v>0.45825756949558394</v>
       </c>
       <c r="C7" t="n">
-        <v>0.25099800796022265</v>
+        <v>0.45825756949558394</v>
       </c>
       <c r="D7" t="n">
-        <v>0.09486832980505139</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="E7" t="n">
         <v>0.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.46475800154489</v>
+        <v>0.6</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5856620185738528</v>
+        <v>0.7</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8660254037844386</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4472135954999579</v>
+        <v>0.6324555320336759</v>
       </c>
       <c r="J7" t="n">
-        <v>0.25099800796022265</v>
+        <v>0.45825756949558394</v>
       </c>
       <c r="R7" t="n">
-        <v>2.4459026963475057</v>
+        <v>1.0614313613418083</v>
       </c>
       <c r="S7" t="n">
-        <v>1.3156749218556991</v>
+        <v>0.7136298611322381</v>
       </c>
       <c r="T7" t="n">
-        <v>1.4307340773183534</v>
+        <v>0.8126023508735138</v>
       </c>
       <c r="U7" t="n">
-        <v>4.471178815480321</v>
+        <v>1.3958808798745044</v>
       </c>
     </row>
     <row r="8">
@@ -28975,43 +28975,43 @@
         <v>923</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3535533905932738</v>
+        <v>0.5</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3834057902536162</v>
+        <v>0.45825756949558394</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09486832980505139</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="E8" t="n">
         <v>0.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.33466401061363027</v>
+        <v>0.5291502622129182</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5366563145999494</v>
+        <v>0.6928203230275508</v>
       </c>
       <c r="H8" t="n">
-        <v>1.3251415018781956</v>
+        <v>0.8737724308248487</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5019960159204453</v>
+        <v>0.648074069840786</v>
       </c>
       <c r="J8" t="n">
         <v>0.0</v>
       </c>
       <c r="R8" t="n">
-        <v>1.6264193801107998</v>
+        <v>0.724464772331413</v>
       </c>
       <c r="S8" t="n">
-        <v>1.5522240817613935</v>
+        <v>0.9408282654813163</v>
       </c>
       <c r="T8" t="n">
-        <v>1.2668859459319926</v>
+        <v>0.6973977605094788</v>
       </c>
       <c r="U8" t="n">
-        <v>3.29802971484491</v>
+        <v>1.0129817745012484</v>
       </c>
     </row>
     <row r="9">
@@ -29019,10 +29019,10 @@
         <v>926</v>
       </c>
       <c r="B9" t="n">
-        <v>0.37037037037037035</v>
+        <v>0.49690399499995325</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3849001794597505</v>
+        <v>0.4714045207910317</v>
       </c>
       <c r="D9" t="n">
         <v>0.0</v>
@@ -29031,31 +29031,31 @@
         <v>0.0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.90267093384844</v>
+        <v>0.7817359599705715</v>
       </c>
       <c r="G9" t="n">
-        <v>0.20951312035156963</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7934920476158723</v>
+        <v>0.5194624816493197</v>
       </c>
       <c r="I9" t="n">
-        <v>1.7037037037037035</v>
+        <v>1.0657403385139377</v>
       </c>
       <c r="J9" t="n">
-        <v>0.10475656017578482</v>
+        <v>0.31426968052735443</v>
       </c>
       <c r="R9" t="n">
-        <v>2.611394783645204</v>
+        <v>1.0139268443214162</v>
       </c>
       <c r="S9" t="n">
-        <v>1.328103529439944</v>
+        <v>0.5275497567680374</v>
       </c>
       <c r="T9" t="n">
-        <v>1.4907119849998598</v>
+        <v>0.8606629658238705</v>
       </c>
       <c r="U9" t="n">
-        <v>3.5619733745478297</v>
+        <v>1.0021476010679264</v>
       </c>
     </row>
     <row r="10">
@@ -29063,10 +29063,10 @@
         <v>929</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1788854381999832</v>
+        <v>0.4</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09486832980505139</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="D10" t="n">
         <v>0.0</v>
@@ -29075,31 +29075,31 @@
         <v>0.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8330666239863412</v>
+        <v>0.7306477631842541</v>
       </c>
       <c r="G10" t="n">
         <v>0.0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2683281572999747</v>
+        <v>0.48989794855663554</v>
       </c>
       <c r="I10" t="n">
-        <v>1.3168143377105217</v>
+        <v>1.0099504938362078</v>
       </c>
       <c r="J10" t="n">
-        <v>0.18973665961010278</v>
+        <v>0.42426406871192857</v>
       </c>
       <c r="R10" t="n">
-        <v>1.7900977626934234</v>
+        <v>0.9869128434093469</v>
       </c>
       <c r="S10" t="n">
-        <v>2.066409930289729</v>
+        <v>1.019284850196164</v>
       </c>
       <c r="T10" t="n">
-        <v>0.6693280212272605</v>
+        <v>0.7483314773547883</v>
       </c>
       <c r="U10" t="n">
-        <v>2.1209596884429454</v>
+        <v>0.9899792035843031</v>
       </c>
     </row>
     <row r="11">
@@ -29107,7 +29107,7 @@
         <v>932</v>
       </c>
       <c r="B11" t="n">
-        <v>0.36774537952540476</v>
+        <v>0.49792959773196915</v>
       </c>
       <c r="C11" t="n">
         <v>0.0</v>
@@ -29119,31 +29119,31 @@
         <v>0.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08667841720414475</v>
+        <v>0.28747978728803447</v>
       </c>
       <c r="G11" t="n">
-        <v>0.08667841720414475</v>
+        <v>0.28747978728803447</v>
       </c>
       <c r="H11" t="n">
         <v>0.0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8698126260913259</v>
+        <v>0.7710064873539733</v>
       </c>
       <c r="J11" t="n">
         <v>0.0</v>
       </c>
       <c r="R11" t="n">
-        <v>1.382530264544566</v>
+        <v>0.8958191538159074</v>
       </c>
       <c r="S11" t="n">
-        <v>2.0041884204443265</v>
+        <v>1.0888177565990742</v>
       </c>
       <c r="T11" t="n">
-        <v>1.1032361385762144</v>
+        <v>0.8624393618641035</v>
       </c>
       <c r="U11" t="n">
-        <v>2.9327844522101296</v>
+        <v>1.3224457197165695</v>
       </c>
     </row>
     <row r="12">
@@ -29151,7 +29151,7 @@
         <v>936</v>
       </c>
       <c r="B12" t="n">
-        <v>0.3794733192202055</v>
+        <v>0.4898979485566356</v>
       </c>
       <c r="C12" t="n">
         <v>0.0</v>
@@ -29163,31 +29163,31 @@
         <v>0.0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.604979338490167</v>
+        <v>0.5768251665169203</v>
       </c>
       <c r="G12" t="n">
-        <v>0.46475800154489</v>
+        <v>0.6</v>
       </c>
       <c r="H12" t="n">
         <v>0.0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6693280212272605</v>
+        <v>0.7483314773547883</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3872983346207417</v>
+        <v>0.5477225575051661</v>
       </c>
       <c r="R12" t="n">
-        <v>1.8476309155239852</v>
+        <v>0.8642852880160362</v>
       </c>
       <c r="S12" t="n">
-        <v>1.697531619734961</v>
+        <v>0.8506820025205398</v>
       </c>
       <c r="T12" t="n">
-        <v>1.1384199576606167</v>
+        <v>0.848528137423857</v>
       </c>
       <c r="U12" t="n">
-        <v>2.8984892616671885</v>
+        <v>1.1248319820985744</v>
       </c>
     </row>
     <row r="13">
@@ -29195,43 +29195,43 @@
         <v>939</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3794733192202055</v>
+        <v>0.4898979485566356</v>
       </c>
       <c r="C13" t="n">
         <v>0.0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.09486832980505139</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="E13" t="n">
         <v>0.0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1788854381999832</v>
+        <v>0.4</v>
       </c>
       <c r="G13" t="n">
-        <v>0.18973665961010278</v>
+        <v>0.42426406871192857</v>
       </c>
       <c r="H13" t="n">
-        <v>0.33466401061363027</v>
+        <v>0.5291502622129182</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6978538528947161</v>
+        <v>0.6653775414960087</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1788854381999832</v>
+        <v>0.4</v>
       </c>
       <c r="R13" t="n">
-        <v>1.6861316674566076</v>
+        <v>0.9670628347298791</v>
       </c>
       <c r="S13" t="n">
-        <v>1.5307807158440427</v>
+        <v>0.8248622170518106</v>
       </c>
       <c r="T13" t="n">
-        <v>1.391402170474087</v>
+        <v>0.938083151964686</v>
       </c>
       <c r="U13" t="n">
-        <v>3.3353200745955403</v>
+        <v>1.315321838812788</v>
       </c>
     </row>
     <row r="14">
@@ -29239,7 +29239,7 @@
         <v>942</v>
       </c>
       <c r="B14" t="n">
-        <v>0.37037037037037035</v>
+        <v>0.49690399499995325</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -29251,31 +29251,31 @@
         <v>0.0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.36288736930121157</v>
+        <v>0.5443310539518174</v>
       </c>
       <c r="G14" t="n">
-        <v>0.10475656017578482</v>
+        <v>0.31426968052735443</v>
       </c>
       <c r="H14" t="n">
         <v>0.0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4536092116265145</v>
+        <v>0.6085806194501846</v>
       </c>
       <c r="J14" t="n">
-        <v>0.10475656017578482</v>
+        <v>0.31426968052735443</v>
       </c>
       <c r="R14" t="n">
-        <v>2.022222222222222</v>
+        <v>1.1610978202322784</v>
       </c>
       <c r="S14" t="n">
-        <v>1.4367008006791648</v>
+        <v>0.8523583588162513</v>
       </c>
       <c r="T14" t="n">
-        <v>1.1111111111111112</v>
+        <v>0.8606629658238705</v>
       </c>
       <c r="U14" t="n">
-        <v>2.92019363470944</v>
+        <v>1.3237191429286113</v>
       </c>
     </row>
     <row r="15">
@@ -29283,43 +29283,43 @@
         <v>946</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2741012223434215</v>
+        <v>0.28747978728803447</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2325825996606659</v>
+        <v>0.4453617714151233</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2325825996606659</v>
+        <v>0.4453617714151233</v>
       </c>
       <c r="E15" t="n">
         <v>0.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4351222010277085</v>
+        <v>0.5891582453098054</v>
       </c>
       <c r="G15" t="n">
-        <v>0.26003525161243424</v>
+        <v>0.49792959773196915</v>
       </c>
       <c r="H15" t="n">
-        <v>0.16446073340605288</v>
+        <v>0.38569460791993504</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4111518335151322</v>
+        <v>0.6098367211363063</v>
       </c>
       <c r="J15" t="n">
-        <v>0.08667841720414475</v>
+        <v>0.28747978728803447</v>
       </c>
       <c r="R15" t="n">
-        <v>0.7435472475851377</v>
+        <v>0.3277907525290562</v>
       </c>
       <c r="S15" t="n">
-        <v>1.0365465258373088</v>
+        <v>0.5260419236332714</v>
       </c>
       <c r="T15" t="n">
-        <v>1.1632359848387346</v>
+        <v>0.5568568323011227</v>
       </c>
       <c r="U15" t="n">
-        <v>1.0706556548113701</v>
+        <v>0.36166596488381986</v>
       </c>
     </row>
     <row r="16">
@@ -29327,7 +29327,7 @@
         <v>949</v>
       </c>
       <c r="B16" t="n">
-        <v>0.37037037037037035</v>
+        <v>0.49690399499995325</v>
       </c>
       <c r="C16" t="n">
         <v>0.0</v>
@@ -29339,13 +29339,13 @@
         <v>0.0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.36288736930121157</v>
+        <v>0.5443310539518174</v>
       </c>
       <c r="G16" t="n">
         <v>0.0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.10475656017578482</v>
+        <v>0.31426968052735443</v>
       </c>
       <c r="I16" t="n">
         <v>0.6666666666666666</v>
@@ -29354,16 +29354,16 @@
         <v>0.0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.7731885209599676</v>
+        <v>1.0181103263147058</v>
       </c>
       <c r="S16" t="n">
-        <v>1.3779370676537686</v>
+        <v>0.7460732177945884</v>
       </c>
       <c r="T16" t="n">
-        <v>1.1111111111111112</v>
+        <v>0.8606629658238705</v>
       </c>
       <c r="U16" t="n">
-        <v>2.6512776121486006</v>
+        <v>1.1565006705833303</v>
       </c>
     </row>
     <row r="17">
@@ -29371,43 +29371,43 @@
         <v>953</v>
       </c>
       <c r="B17" t="n">
-        <v>0.3794733192202055</v>
+        <v>0.4898979485566356</v>
       </c>
       <c r="C17" t="n">
         <v>0.0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.09486832980505139</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="E17" t="n">
         <v>0.0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4472135954999579</v>
+        <v>0.6324555320336759</v>
       </c>
       <c r="G17" t="n">
         <v>0.0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3834057902536162</v>
+        <v>0.45825756949558394</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4472135954999579</v>
+        <v>0.6324555320336759</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1788854381999832</v>
+        <v>0.4</v>
       </c>
       <c r="R17" t="n">
-        <v>1.7938784797192924</v>
+        <v>0.9454569735788556</v>
       </c>
       <c r="S17" t="n">
-        <v>1.319280106724876</v>
+        <v>0.7681145747868608</v>
       </c>
       <c r="T17" t="n">
-        <v>1.2049896265113655</v>
+        <v>0.8124038404635961</v>
       </c>
       <c r="U17" t="n">
-        <v>2.4097199007353534</v>
+        <v>0.9344492970310398</v>
       </c>
     </row>
     <row r="18">
@@ -29415,7 +29415,7 @@
         <v>957</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3535533905932738</v>
+        <v>0.5</v>
       </c>
       <c r="C18" t="n">
         <v>0.0</v>
@@ -29427,31 +29427,31 @@
         <v>0.0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8440285891243609</v>
+        <v>0.7091258542206615</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2886751345948129</v>
+        <v>0.5000000000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>0.07978559231302819</v>
+        <v>0.27638539919628335</v>
       </c>
       <c r="I18" t="n">
-        <v>0.15214515486254615</v>
+        <v>0.372677996249965</v>
       </c>
       <c r="J18" t="n">
         <v>0.0</v>
       </c>
       <c r="R18" t="n">
-        <v>1.1225487698718226</v>
+        <v>0.5224454592798968</v>
       </c>
       <c r="S18" t="n">
-        <v>0.6779626341719234</v>
+        <v>0.3815850895543767</v>
       </c>
       <c r="T18" t="n">
-        <v>1.0606601717798212</v>
+        <v>0.8660254037844386</v>
       </c>
       <c r="U18" t="n">
-        <v>2.044165137925777</v>
+        <v>0.8612579671596979</v>
       </c>
     </row>
     <row r="19">
@@ -29459,7 +29459,7 @@
         <v>960</v>
       </c>
       <c r="B19" t="n">
-        <v>0.37980579481243165</v>
+        <v>0.4453617714151233</v>
       </c>
       <c r="C19" t="n">
         <v>0.0</v>
@@ -29471,31 +29471,31 @@
         <v>0.0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2900814673518057</v>
+        <v>0.48104569292083466</v>
       </c>
       <c r="G19" t="n">
-        <v>0.08667841720414475</v>
+        <v>0.28747978728803447</v>
       </c>
       <c r="H19" t="n">
-        <v>0.548202444686843</v>
+        <v>0.5749595745760689</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1733568344082895</v>
+        <v>0.4065578140908709</v>
       </c>
       <c r="J19" t="n">
-        <v>0.36774537952540476</v>
+        <v>0.49792959773196915</v>
       </c>
       <c r="R19" t="n">
-        <v>1.7056321604809805</v>
+        <v>0.8499235357392737</v>
       </c>
       <c r="S19" t="n">
-        <v>1.3054260856954427</v>
+        <v>0.7817929348211514</v>
       </c>
       <c r="T19" t="n">
-        <v>1.1394173844372948</v>
+        <v>0.7713892158398701</v>
       </c>
       <c r="U19" t="n">
-        <v>3.1284016797515433</v>
+        <v>1.1409486483807139</v>
       </c>
     </row>
     <row r="20">
@@ -29503,43 +29503,43 @@
         <v>964</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3535533905932738</v>
+        <v>0.5</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09486832980505139</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="D20" t="n">
-        <v>0.09486832980505139</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="E20" t="n">
         <v>0.0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4472135954999579</v>
+        <v>0.6324555320336759</v>
       </c>
       <c r="G20" t="n">
-        <v>0.18973665961010278</v>
+        <v>0.42426406871192857</v>
       </c>
       <c r="H20" t="n">
-        <v>0.7974960814950753</v>
+        <v>0.6740072064048828</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9979979959899719</v>
+        <v>0.8434622525214578</v>
       </c>
       <c r="J20" t="n">
         <v>0.0</v>
       </c>
       <c r="R20" t="n">
-        <v>1.6736666334727472</v>
+        <v>0.8608412275487385</v>
       </c>
       <c r="S20" t="n">
-        <v>1.9290251423970604</v>
+        <v>0.9851714869165068</v>
       </c>
       <c r="T20" t="n">
-        <v>1.150651989091402</v>
+        <v>0.7940253084607508</v>
       </c>
       <c r="U20" t="n">
-        <v>2.6601879632837977</v>
+        <v>0.9211477565778692</v>
       </c>
     </row>
     <row r="21">
@@ -29547,43 +29547,43 @@
         <v>967</v>
       </c>
       <c r="B21" t="n">
-        <v>0.2741012223434215</v>
+        <v>0.28747978728803447</v>
       </c>
       <c r="C21" t="n">
         <v>0.0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.08667841720414475</v>
+        <v>0.28747978728803447</v>
       </c>
       <c r="E21" t="n">
         <v>0.0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.32892146681210577</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="G21" t="n">
-        <v>0.24669110010907933</v>
+        <v>0.47237749297333015</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1733568344082895</v>
+        <v>0.4065578140908709</v>
       </c>
       <c r="I21" t="n">
-        <v>2.501689887158307</v>
+        <v>0.9988614910770609</v>
       </c>
       <c r="J21" t="n">
-        <v>0.16446073340605288</v>
+        <v>0.38569460791993504</v>
       </c>
       <c r="R21" t="n">
-        <v>0.5041078438756427</v>
+        <v>0.23812025448259722</v>
       </c>
       <c r="S21" t="n">
-        <v>3.2599427520750903</v>
+        <v>0.9712994382683299</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9355649325676642</v>
+        <v>0.5321460208039352</v>
       </c>
       <c r="U21" t="n">
-        <v>1.7845715781401525</v>
+        <v>0.5147716096288664</v>
       </c>
     </row>
     <row r="22">
@@ -29591,7 +29591,7 @@
         <v>970</v>
       </c>
       <c r="B22" t="n">
-        <v>0.11692679333668567</v>
+        <v>0.33071891388307384</v>
       </c>
       <c r="C22" t="n">
         <v>0.0</v>
@@ -29612,22 +29612,22 @@
         <v>0.0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.21650635094610965</v>
+        <v>0.4330127018922193</v>
       </c>
       <c r="J22" t="n">
         <v>0.0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.46770717334674267</v>
+        <v>0.6614378277661477</v>
       </c>
       <c r="S22" t="n">
-        <v>0.606217782649107</v>
+        <v>0.7245688373094719</v>
       </c>
       <c r="T22" t="n">
-        <v>0.350780380010057</v>
+        <v>0.57282196186948</v>
       </c>
       <c r="U22" t="n">
-        <v>0.9177077421488826</v>
+        <v>0.8955910525085282</v>
       </c>
     </row>
     <row r="23">
@@ -29635,7 +29635,7 @@
         <v>973</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3834057902536162</v>
+        <v>0.45825756949558394</v>
       </c>
       <c r="C23" t="n">
         <v>0.0</v>
@@ -29647,31 +29647,31 @@
         <v>0.0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.33466401061363027</v>
+        <v>0.5291502622129182</v>
       </c>
       <c r="G23" t="n">
         <v>0.0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.09486832980505139</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="I23" t="n">
-        <v>1.2976902558006669</v>
+        <v>0.967241208569794</v>
       </c>
       <c r="J23" t="n">
-        <v>0.09486832980505139</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="R23" t="n">
-        <v>1.6813893064962677</v>
+        <v>0.8949132295285779</v>
       </c>
       <c r="S23" t="n">
-        <v>1.9646882704388506</v>
+        <v>0.8930401229267502</v>
       </c>
       <c r="T23" t="n">
-        <v>1.1502173707608487</v>
+        <v>0.7937253933193772</v>
       </c>
       <c r="U23" t="n">
-        <v>2.884246868768344</v>
+        <v>1.1093257187570555</v>
       </c>
     </row>
     <row r="24">
@@ -29679,10 +29679,10 @@
         <v>975</v>
       </c>
       <c r="B24" t="n">
-        <v>0.28460498941515416</v>
+        <v>0.3</v>
       </c>
       <c r="C24" t="n">
-        <v>0.09486832980505139</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="D24" t="n">
         <v>0.0</v>
@@ -29691,31 +29691,31 @@
         <v>0.0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.33466401061363027</v>
+        <v>0.5291502622129182</v>
       </c>
       <c r="G24" t="n">
         <v>0.0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.6196773353931867</v>
+        <v>0.6928203230275509</v>
       </c>
       <c r="I24" t="n">
-        <v>0.09486832980505139</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="J24" t="n">
-        <v>0.25099800796022265</v>
+        <v>0.45825756949558394</v>
       </c>
       <c r="R24" t="n">
-        <v>1.199353992781114</v>
+        <v>0.5468583491673636</v>
       </c>
       <c r="S24" t="n">
-        <v>1.0342823598998483</v>
+        <v>0.5754900993841371</v>
       </c>
       <c r="T24" t="n">
-        <v>0.2846049894151541</v>
+        <v>0.16712580435934668</v>
       </c>
       <c r="U24" t="n">
-        <v>2.468531952395999</v>
+        <v>0.8481976168125386</v>
       </c>
     </row>
     <row r="25">
@@ -29723,10 +29723,10 @@
         <v>979</v>
       </c>
       <c r="B25" t="n">
-        <v>0.38273277230987157</v>
+        <v>0.4841229182759271</v>
       </c>
       <c r="C25" t="n">
-        <v>0.11692679333668567</v>
+        <v>0.33071891388307384</v>
       </c>
       <c r="D25" t="n">
         <v>0.0</v>
@@ -29735,31 +29735,31 @@
         <v>0.0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.11692679333668567</v>
+        <v>0.33071891388307384</v>
       </c>
       <c r="G25" t="n">
         <v>0.0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.11692679333668567</v>
+        <v>0.33071891388307384</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5303300858899106</v>
+        <v>0.6123724356957945</v>
       </c>
       <c r="J25" t="n">
         <v>0.0</v>
       </c>
       <c r="R25" t="n">
-        <v>1.5787344120370597</v>
+        <v>0.921128326356877</v>
       </c>
       <c r="S25" t="n">
-        <v>1.2143349517328406</v>
+        <v>0.7040362325951148</v>
       </c>
       <c r="T25" t="n">
-        <v>1.0634187204483472</v>
+        <v>0.7294992238837947</v>
       </c>
       <c r="U25" t="n">
-        <v>2.744312300012519</v>
+        <v>1.180963981637851</v>
       </c>
     </row>
     <row r="26">
@@ -29767,10 +29767,10 @@
         <v>983</v>
       </c>
       <c r="B26" t="n">
-        <v>0.3535533905932738</v>
+        <v>0.5</v>
       </c>
       <c r="C26" t="n">
-        <v>0.15214515486254615</v>
+        <v>0.372677996249965</v>
       </c>
       <c r="D26" t="n">
         <v>0.0</v>
@@ -29779,31 +29779,31 @@
         <v>0.0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.529237746757157</v>
+        <v>0.5527707983925666</v>
       </c>
       <c r="G26" t="n">
         <v>0.0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.3042903097250923</v>
+        <v>0.5270462766947299</v>
       </c>
       <c r="I26" t="n">
-        <v>0.07978559231302819</v>
+        <v>0.27638539919628335</v>
       </c>
       <c r="J26" t="n">
         <v>0.0</v>
       </c>
       <c r="R26" t="n">
-        <v>2.065061540648769</v>
+        <v>1.04014300122729</v>
       </c>
       <c r="S26" t="n">
-        <v>1.3556594336336834</v>
+        <v>0.8531392234878579</v>
       </c>
       <c r="T26" t="n">
-        <v>1.296362432175337</v>
+        <v>0.9574271077563381</v>
       </c>
       <c r="U26" t="n">
-        <v>3.2990371069955144</v>
+        <v>1.431884893596072</v>
       </c>
     </row>
     <row r="27">
@@ -29811,10 +29811,10 @@
         <v>987</v>
       </c>
       <c r="B27" t="n">
-        <v>0.3535533905932738</v>
+        <v>0.5</v>
       </c>
       <c r="C27" t="n">
-        <v>0.30983866769659335</v>
+        <v>0.48989794855663565</v>
       </c>
       <c r="D27" t="n">
         <v>0.0</v>
@@ -29823,31 +29823,31 @@
         <v>0.0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.7307530362578044</v>
+        <v>0.6409128105828676</v>
       </c>
       <c r="G27" t="n">
-        <v>0.25099800796022265</v>
+        <v>0.45825756949558394</v>
       </c>
       <c r="H27" t="n">
         <v>0.0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.1853269591129698</v>
+        <v>0.7213670150279748</v>
       </c>
       <c r="J27" t="n">
         <v>0.0</v>
       </c>
       <c r="R27" t="n">
-        <v>2.5453486990980227</v>
+        <v>1.1522252170559677</v>
       </c>
       <c r="S27" t="n">
-        <v>2.1898320940199953</v>
+        <v>0.8703113748061914</v>
       </c>
       <c r="T27" t="n">
-        <v>1.457737973711325</v>
+        <v>0.9612039551927888</v>
       </c>
       <c r="U27" t="n">
-        <v>3.0167200731920754</v>
+        <v>1.103022100418072</v>
       </c>
     </row>
     <row r="28">
@@ -29855,10 +29855,10 @@
         <v>990</v>
       </c>
       <c r="B28" t="n">
-        <v>0.3794733192202055</v>
+        <v>0.4898979485566356</v>
       </c>
       <c r="C28" t="n">
-        <v>0.09486832980505139</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="D28" t="n">
         <v>0.0</v>
@@ -29867,31 +29867,31 @@
         <v>0.0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4816637831516918</v>
+        <v>0.42244708362295325</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2683281572999747</v>
+        <v>0.48989794855663554</v>
       </c>
       <c r="H28" t="n">
-        <v>0.09486832980505139</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="I28" t="n">
-        <v>0.5019960159204453</v>
+        <v>0.648074069840786</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2846049894151541</v>
+        <v>0.5196152422706631</v>
       </c>
       <c r="R28" t="n">
-        <v>1.4754253623955365</v>
+        <v>0.6638252538216184</v>
       </c>
       <c r="S28" t="n">
-        <v>1.9260344493284642</v>
+        <v>0.8790188689939995</v>
       </c>
       <c r="T28" t="n">
-        <v>1.0954451150103321</v>
+        <v>0.7745966692414834</v>
       </c>
       <c r="U28" t="n">
-        <v>2.656772478026675</v>
+        <v>1.0333647287537808</v>
       </c>
     </row>
     <row r="29">
@@ -29899,13 +29899,13 @@
         <v>993</v>
       </c>
       <c r="B29" t="n">
-        <v>0.3849001794597505</v>
+        <v>0.4714045207910317</v>
       </c>
       <c r="C29" t="n">
         <v>0.0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.10475656017578482</v>
+        <v>0.31426968052735443</v>
       </c>
       <c r="E29" t="n">
         <v>0.0</v>
@@ -29917,25 +29917,25 @@
         <v>0.0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.5949029038595931</v>
+        <v>0.5381099233077659</v>
       </c>
       <c r="I29" t="n">
-        <v>0.19598157859737708</v>
+        <v>0.41573970964154905</v>
       </c>
       <c r="J29" t="n">
-        <v>0.10475656017578482</v>
+        <v>0.31426968052735443</v>
       </c>
       <c r="R29" t="n">
-        <v>1.4178462772259979</v>
+        <v>0.78313997693753</v>
       </c>
       <c r="S29" t="n">
-        <v>1.3214906161451436</v>
+        <v>0.8734775114237132</v>
       </c>
       <c r="T29" t="n">
-        <v>1.4113006580190852</v>
+        <v>0.9026709338484401</v>
       </c>
       <c r="U29" t="n">
-        <v>2.4655764468706933</v>
+        <v>0.9009688565038121</v>
       </c>
     </row>
     <row r="30">
@@ -29943,7 +29943,7 @@
         <v>996</v>
       </c>
       <c r="B30" t="n">
-        <v>0.3818017741606063</v>
+        <v>0.45175395145262565</v>
       </c>
       <c r="C30" t="n">
         <v>0.0</v>
@@ -29955,31 +29955,31 @@
         <v>0.0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3622089663122214</v>
+        <v>0.5532833351724882</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4319593977248311</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="H30" t="n">
-        <v>1.502184997516567</v>
+        <v>0.888704629428331</v>
       </c>
       <c r="I30" t="n">
-        <v>1.8214785907497695</v>
+        <v>1.0776012666083492</v>
       </c>
       <c r="J30" t="n">
-        <v>0.24147264420814757</v>
+        <v>0.4517539514526256</v>
       </c>
       <c r="R30" t="n">
-        <v>2.565707922359274</v>
+        <v>1.114472304510173</v>
       </c>
       <c r="S30" t="n">
-        <v>2.3323038198038692</v>
+        <v>0.9273215179868118</v>
       </c>
       <c r="T30" t="n">
-        <v>1.1454053224818188</v>
+        <v>0.7824607964359516</v>
       </c>
       <c r="U30" t="n">
-        <v>5.335717700733818</v>
+        <v>1.4318869520860267</v>
       </c>
     </row>
     <row r="31">
@@ -29987,43 +29987,43 @@
         <v>999</v>
       </c>
       <c r="B31" t="n">
-        <v>0.30983866769659335</v>
+        <v>0.48989794855663565</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1788854381999832</v>
+        <v>0.4</v>
       </c>
       <c r="D31" t="n">
-        <v>0.09486832980505139</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="E31" t="n">
         <v>0.0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.46475800154489</v>
+        <v>0.6</v>
       </c>
       <c r="G31" t="n">
         <v>0.7745966692414834</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2846049894151541</v>
+        <v>0.5196152422706631</v>
       </c>
       <c r="I31" t="n">
-        <v>1.4439529078193651</v>
+        <v>0.8787617550976045</v>
       </c>
       <c r="J31" t="n">
-        <v>0.09486832980505139</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="R31" t="n">
-        <v>2.323026043762747</v>
+        <v>1.2364220059391284</v>
       </c>
       <c r="S31" t="n">
-        <v>2.166298686700429</v>
+        <v>0.9339576819497031</v>
       </c>
       <c r="T31" t="n">
-        <v>1.4142135623730951</v>
+        <v>1.0</v>
       </c>
       <c r="U31" t="n">
-        <v>3.5160858920111715</v>
+        <v>1.2762583240151335</v>
       </c>
     </row>
     <row r="32">
@@ -30031,10 +30031,10 @@
         <v>1003</v>
       </c>
       <c r="B32" t="n">
-        <v>0.3535533905932738</v>
+        <v>0.5</v>
       </c>
       <c r="C32" t="n">
-        <v>0.21650635094610965</v>
+        <v>0.4330127018922193</v>
       </c>
       <c r="D32" t="n">
         <v>0.0</v>
@@ -30043,31 +30043,31 @@
         <v>0.0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.5676844413932797</v>
+        <v>0.535218024111047</v>
       </c>
       <c r="G32" t="n">
         <v>0.0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4330127018922193</v>
+        <v>0.6123724356957945</v>
       </c>
       <c r="I32" t="n">
-        <v>1.3806701271484076</v>
+        <v>0.9204467514322717</v>
       </c>
       <c r="J32" t="n">
         <v>0.0</v>
       </c>
       <c r="R32" t="n">
-        <v>1.2512727895027522</v>
+        <v>0.5906766043910409</v>
       </c>
       <c r="S32" t="n">
-        <v>2.305699460033766</v>
+        <v>0.9787149139983935</v>
       </c>
       <c r="T32" t="n">
-        <v>1.0</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="U32" t="n">
-        <v>2.559968261522006</v>
+        <v>0.9378998028939214</v>
       </c>
     </row>
     <row r="33">
@@ -30075,7 +30075,7 @@
         <v>1006</v>
       </c>
       <c r="B33" t="n">
-        <v>0.2721655269759087</v>
+        <v>0.47140452079103173</v>
       </c>
       <c r="C33" t="n">
         <v>0.0</v>
@@ -30087,31 +30087,31 @@
         <v>0.0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.19598157859737708</v>
+        <v>0.41573970964154905</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6758625033664689</v>
+        <v>0.5235208439728777</v>
       </c>
       <c r="H33" t="n">
         <v>0.0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.20951312035156963</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="J33" t="n">
-        <v>0.19598157859737708</v>
+        <v>0.41573970964154905</v>
       </c>
       <c r="R33" t="n">
-        <v>1.4682090655224493</v>
+        <v>0.9204313764804192</v>
       </c>
       <c r="S33" t="n">
-        <v>1.131527549525895</v>
+        <v>0.8868855410959738</v>
       </c>
       <c r="T33" t="n">
         <v>0.816496580927726</v>
       </c>
       <c r="U33" t="n">
-        <v>2.405463602724623</v>
+        <v>1.0891502225152079</v>
       </c>
     </row>
     <row r="34">
@@ -30119,10 +30119,10 @@
         <v>1009</v>
       </c>
       <c r="B34" t="n">
-        <v>0.3535533905932738</v>
+        <v>0.5</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1788854381999832</v>
+        <v>0.4</v>
       </c>
       <c r="D34" t="n">
         <v>0.0</v>
@@ -30131,31 +30131,31 @@
         <v>0.0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3535533905932738</v>
+        <v>0.5</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4472135954999579</v>
+        <v>0.6324555320336759</v>
       </c>
       <c r="H34" t="n">
-        <v>0.49295030175464954</v>
+        <v>0.5196152422706632</v>
       </c>
       <c r="I34" t="n">
-        <v>0.7784600182411426</v>
+        <v>0.7422325046163708</v>
       </c>
       <c r="J34" t="n">
-        <v>0.09486832980505139</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="R34" t="n">
-        <v>1.4567223482874148</v>
+        <v>0.7463014667445669</v>
       </c>
       <c r="S34" t="n">
-        <v>1.2789399907736094</v>
+        <v>0.6870661427838549</v>
       </c>
       <c r="T34" t="n">
-        <v>1.0406728592598156</v>
+        <v>0.754983443527075</v>
       </c>
       <c r="U34" t="n">
-        <v>2.256049644843836</v>
+        <v>0.8282218799813152</v>
       </c>
     </row>
     <row r="35">
@@ -30163,10 +30163,10 @@
         <v>1012</v>
       </c>
       <c r="B35" t="n">
-        <v>0.37037037037037035</v>
+        <v>0.49690399499995325</v>
       </c>
       <c r="C35" t="n">
-        <v>0.33126932999996883</v>
+        <v>0.4969039949999533</v>
       </c>
       <c r="D35" t="n">
         <v>0.0</v>
@@ -30175,31 +30175,31 @@
         <v>0.0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.3849001794597505</v>
+        <v>0.4714045207910317</v>
       </c>
       <c r="G35" t="n">
-        <v>0.19598157859737708</v>
+        <v>0.41573970964154905</v>
       </c>
       <c r="H35" t="n">
-        <v>0.7276623223847593</v>
+        <v>0.6054516495187978</v>
       </c>
       <c r="I35" t="n">
         <v>0.0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.10475656017578482</v>
+        <v>0.31426968052735443</v>
       </c>
       <c r="R35" t="n">
-        <v>1.8870252244023829</v>
+        <v>0.8643115451238905</v>
       </c>
       <c r="S35" t="n">
-        <v>1.2626962355470717</v>
+        <v>0.8238869975542835</v>
       </c>
       <c r="T35" t="n">
-        <v>1.232838294599499</v>
+        <v>0.7711936638766136</v>
       </c>
       <c r="U35" t="n">
-        <v>3.307032038754658</v>
+        <v>1.1564337289288076</v>
       </c>
     </row>
     <row r="36">
@@ -30207,10 +30207,10 @@
         <v>1015</v>
       </c>
       <c r="B36" t="n">
-        <v>0.10475656017578482</v>
+        <v>0.31426968052735443</v>
       </c>
       <c r="C36" t="n">
-        <v>0.10475656017578482</v>
+        <v>0.31426968052735443</v>
       </c>
       <c r="D36" t="n">
         <v>0.0</v>
@@ -30228,22 +30228,22 @@
         <v>0.0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.3598192407915421</v>
+        <v>0.8158915444749253</v>
       </c>
       <c r="J36" t="n">
         <v>0.0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.5193511832830493</v>
+        <v>0.676775214792936</v>
       </c>
       <c r="S36" t="n">
-        <v>1.4932311840430565</v>
+        <v>0.7518550639657352</v>
       </c>
       <c r="T36" t="n">
-        <v>0.48995394649344276</v>
+        <v>0.6573421981221795</v>
       </c>
       <c r="U36" t="n">
-        <v>1.1868102285195046</v>
+        <v>0.7050703390489037</v>
       </c>
     </row>
     <row r="37">
@@ -30251,43 +30251,43 @@
         <v>1018</v>
       </c>
       <c r="B37" t="n">
-        <v>0.3535533905932738</v>
+        <v>0.5</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3535533905932738</v>
+        <v>0.5</v>
       </c>
       <c r="D37" t="n">
-        <v>0.29646353064078557</v>
+        <v>0.4841229182759271</v>
       </c>
       <c r="E37" t="n">
         <v>0.0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3247595264191645</v>
+        <v>0.5303300858899106</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8893905919223567</v>
+        <v>0.8385254915624212</v>
       </c>
       <c r="H37" t="n">
-        <v>0.8660254037844386</v>
+        <v>0.6123724356957945</v>
       </c>
       <c r="I37" t="n">
-        <v>0.691748238161833</v>
+        <v>0.739509972887452</v>
       </c>
       <c r="J37" t="n">
         <v>0.0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.952135757127102</v>
+        <v>0.4323425760814952</v>
       </c>
       <c r="S37" t="n">
-        <v>1.8357460272495485</v>
+        <v>1.0441082620006426</v>
       </c>
       <c r="T37" t="n">
-        <v>1.8708286933869707</v>
+        <v>0.9354143466934853</v>
       </c>
       <c r="U37" t="n">
-        <v>2.424097770305481</v>
+        <v>0.724337751723206</v>
       </c>
     </row>
     <row r="38">
@@ -30295,43 +30295,43 @@
         <v>1022</v>
       </c>
       <c r="B38" t="n">
-        <v>0.13226001425322162</v>
+        <v>0.34992710611188255</v>
       </c>
       <c r="C38" t="n">
         <v>0.0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.13226001425322162</v>
+        <v>0.34992710611188255</v>
       </c>
       <c r="E38" t="n">
         <v>0.0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4581621289927275</v>
+        <v>0.4948716593053935</v>
       </c>
       <c r="G38" t="n">
         <v>0.0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.0511690007898702</v>
+        <v>0.8385427770056066</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5128217798568773</v>
+        <v>0.9434101312456643</v>
       </c>
       <c r="J38" t="n">
         <v>0.0</v>
       </c>
       <c r="R38" t="n">
-        <v>1.0193606868584526</v>
+        <v>0.6076364073376619</v>
       </c>
       <c r="S38" t="n">
-        <v>2.026824484929904</v>
+        <v>0.9420905707452042</v>
       </c>
       <c r="T38" t="n">
         <v>0.9258200997725514</v>
       </c>
       <c r="U38" t="n">
-        <v>1.6494543668907025</v>
+        <v>0.6196529003555341</v>
       </c>
     </row>
   </sheetData>
